--- a/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
+++ b/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="138" uniqueCount="69">
   <si>
     <t>Lh2 Feed pressure (bar)_ 1</t>
   </si>
@@ -193,6 +193,33 @@
   </si>
   <si>
     <t>LH2 consumed(kg)_20</t>
+  </si>
+  <si>
+    <t>Valve discahrge coefficient</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)</t>
   </si>
 </sst>
 </file>
@@ -238,21 +265,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="true"/>
-    <col min="2" max="2" width="24.28515625" customWidth="true"/>
-    <col min="3" max="3" width="24.28515625" customWidth="true"/>
-    <col min="4" max="4" width="24.28515625" customWidth="true"/>
-    <col min="5" max="5" width="24.28515625" customWidth="true"/>
-    <col min="6" max="6" width="24.28515625" customWidth="true"/>
-    <col min="7" max="7" width="24.28515625" customWidth="true"/>
-    <col min="8" max="8" width="24.28515625" customWidth="true"/>
-    <col min="9" max="9" width="24.28515625" customWidth="true"/>
+    <col min="1" max="1" width="25" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
     <col min="10" max="10" width="24.85546875" customWidth="true"/>
     <col min="11" max="11" width="24.85546875" customWidth="true"/>
     <col min="12" max="12" width="24.85546875" customWidth="true"/>
@@ -308,31 +335,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>9</v>
@@ -493,28 +520,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>0.4210526315789474</v>
+        <v>33.042813852292582</v>
       </c>
       <c r="C2" s="0">
-        <v>0.44210526315789478</v>
+        <v>16.429401955707995</v>
       </c>
       <c r="D2" s="0">
-        <v>0.46315789473684216</v>
+        <v>0.49721558306597086</v>
       </c>
       <c r="E2" s="0">
-        <v>0.48421052631578948</v>
+        <v>29.794994772304484</v>
       </c>
       <c r="F2" s="0">
-        <v>0.50526315789473686</v>
+        <v>14.699640589479795</v>
       </c>
       <c r="G2" s="0">
-        <v>0.52631578947368429</v>
+        <v>0.49335939481834168</v>
       </c>
       <c r="H2" s="0">
-        <v>0.54736842105263162</v>
+        <v>302</v>
       </c>
       <c r="I2" s="0">
-        <v>0.56842105263157894</v>
+        <v>269</v>
       </c>
       <c r="J2" s="0">
         <v>0.58947368421052637</v>
@@ -668,6 +695,267 @@
       </c>
       <c r="BH2" s="0">
         <v>33.114161624212031</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="B3" s="0">
+        <v>33.057198804748651</v>
+      </c>
+      <c r="C3" s="0">
+        <v>16.443991970106818</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.49744057466068925</v>
+      </c>
+      <c r="E3" s="0">
+        <v>29.755207297450333</v>
+      </c>
+      <c r="F3" s="0">
+        <v>14.587495948923646</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.49025018723944902</v>
+      </c>
+      <c r="H3" s="0">
+        <v>302</v>
+      </c>
+      <c r="I3" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.48888888888888893</v>
+      </c>
+      <c r="B4" s="0">
+        <v>33.066473223522685</v>
+      </c>
+      <c r="C4" s="0">
+        <v>16.456822280606001</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.49768906920799216</v>
+      </c>
+      <c r="E4" s="0">
+        <v>29.948976544537715</v>
+      </c>
+      <c r="F4" s="0">
+        <v>14.781328243306532</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.49355036294228377</v>
+      </c>
+      <c r="H4" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="I4" s="0">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.53333333333333344</v>
+      </c>
+      <c r="B5" s="0">
+        <v>33.078742981523391</v>
+      </c>
+      <c r="C5" s="0">
+        <v>16.46712907366177</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.49781604708678689</v>
+      </c>
+      <c r="E5" s="0">
+        <v>29.916560463981085</v>
+      </c>
+      <c r="F5" s="0">
+        <v>14.823409604642745</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.49549177361113489</v>
+      </c>
+      <c r="H5" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="I5" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="B6" s="0">
+        <v>33.087232099417172</v>
+      </c>
+      <c r="C6" s="0">
+        <v>16.476378179397056</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.49796786052972031</v>
+      </c>
+      <c r="E6" s="0">
+        <v>29.919361527953733</v>
+      </c>
+      <c r="F6" s="0">
+        <v>14.846112969008525</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.49620420392787346</v>
+      </c>
+      <c r="H6" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="I6" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="B7" s="0">
+        <v>33.089992675307087</v>
+      </c>
+      <c r="C7" s="0">
+        <v>16.47925041718976</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.49801311770876139</v>
+      </c>
+      <c r="E7" s="0">
+        <v>29.706592117346922</v>
+      </c>
+      <c r="F7" s="0">
+        <v>14.666633310347176</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.49371645365483424</v>
+      </c>
+      <c r="H7" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="I7" s="0">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="B8" s="0">
+        <v>33.101131359061057</v>
+      </c>
+      <c r="C8" s="0">
+        <v>16.490095597549935</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.4981731717467705</v>
+      </c>
+      <c r="E8" s="0">
+        <v>29.73059182269516</v>
+      </c>
+      <c r="F8" s="0">
+        <v>14.701272466206667</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.49448300773428588</v>
+      </c>
+      <c r="H8" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="I8" s="0">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="B9" s="0">
+        <v>33.104213047162723</v>
+      </c>
+      <c r="C9" s="0">
+        <v>16.49231101633346</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.49819371911476307</v>
+      </c>
+      <c r="E9" s="0">
+        <v>29.755347219340088</v>
+      </c>
+      <c r="F9" s="0">
+        <v>14.729351351288093</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.49501527381654797</v>
+      </c>
+      <c r="H9" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="I9" s="0">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="B10" s="0">
+        <v>33.107208044538346</v>
+      </c>
+      <c r="C10" s="0">
+        <v>16.495337427459649</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.49824006316898906</v>
+      </c>
+      <c r="E10" s="0">
+        <v>29.782031871529824</v>
+      </c>
+      <c r="F10" s="0">
+        <v>14.769729543214364</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.49592753130230538</v>
+      </c>
+      <c r="H10" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="I10" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="B11" s="0">
+        <v>33.114161624212031</v>
+      </c>
+      <c r="C11" s="0">
+        <v>16.501876184799734</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.49833289974444295</v>
+      </c>
+      <c r="E11" s="0">
+        <v>29.780713481931144</v>
+      </c>
+      <c r="F11" s="0">
+        <v>14.839810584240809</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.49830272176805196</v>
+      </c>
+      <c r="H11" s="0">
+        <v>302.5</v>
+      </c>
+      <c r="I11" s="0">
+        <v>268.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
+++ b/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
   <si>
     <t>Valve discahrge coefficient</t>
   </si>
@@ -136,28 +136,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>33.042813852292582</v>
+        <v>32.753577351059569</v>
       </c>
       <c r="C2" s="0">
-        <v>16.429401955707995</v>
+        <v>16.290881626426543</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49721558306597086</v>
+        <v>0.49737717049400521</v>
       </c>
       <c r="E2" s="0">
-        <v>29.794994772304484</v>
+        <v>29.449268217519098</v>
       </c>
       <c r="F2" s="0">
-        <v>14.699640589479795</v>
+        <v>14.447644840319134</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49335939481834168</v>
+        <v>0.49059435818932723</v>
       </c>
       <c r="H2" s="0">
-        <v>302</v>
+        <v>299.08139733819786</v>
       </c>
       <c r="I2" s="0">
-        <v>269</v>
+        <v>267.0264231233715</v>
       </c>
     </row>
     <row r="3">
@@ -165,231 +165,231 @@
         <v>0.44444444444444448</v>
       </c>
       <c r="B3" s="0">
-        <v>33.057198804748651</v>
+        <v>32.767804302535509</v>
       </c>
       <c r="C3" s="0">
-        <v>16.443991970106818</v>
+        <v>16.283798981148575</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49744057466068925</v>
+        <v>0.49694507544066863</v>
       </c>
       <c r="E3" s="0">
-        <v>29.755207297450333</v>
+        <v>29.436779645265183</v>
       </c>
       <c r="F3" s="0">
-        <v>14.587495948923646</v>
+        <v>14.538680507266456</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49025018723944902</v>
+        <v>0.49389507556425111</v>
       </c>
       <c r="H3" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I3" s="0">
-        <v>269</v>
+        <v>266.51806080714397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.48888888888888893</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="B4" s="0">
-        <v>33.066473223522685</v>
+        <v>32.790494709695217</v>
       </c>
       <c r="C4" s="0">
-        <v>16.456822280606001</v>
+        <v>16.275179168966535</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49768906920799216</v>
+        <v>0.49633832343964079</v>
       </c>
       <c r="E4" s="0">
-        <v>29.948976544537715</v>
+        <v>29.369643361785428</v>
       </c>
       <c r="F4" s="0">
-        <v>14.781328243306532</v>
+        <v>14.469798888897607</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49355036294228377</v>
+        <v>0.49267874010772339</v>
       </c>
       <c r="H4" s="0">
-        <v>302.5</v>
+        <v>299.08739985024806</v>
       </c>
       <c r="I4" s="0">
-        <v>269.5</v>
+        <v>266.63584998259716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.53333333333333344</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="B5" s="0">
-        <v>33.078742981523391</v>
+        <v>32.79853471903089</v>
       </c>
       <c r="C5" s="0">
-        <v>16.46712907366177</v>
+        <v>16.281372634773582</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49781604708678689</v>
+        <v>0.4964054880575669</v>
       </c>
       <c r="E5" s="0">
-        <v>29.916560463981085</v>
+        <v>29.349590373071486</v>
       </c>
       <c r="F5" s="0">
-        <v>14.823409604642745</v>
+        <v>14.46896269486612</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49549177361113489</v>
+        <v>0.49298687003623476</v>
       </c>
       <c r="H5" s="0">
-        <v>302.5</v>
+        <v>298.94543814924458</v>
       </c>
       <c r="I5" s="0">
-        <v>269</v>
+        <v>266.56821707743393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.57777777777777783</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="B6" s="0">
-        <v>33.087232099417172</v>
+        <v>32.805044014422748</v>
       </c>
       <c r="C6" s="0">
-        <v>16.476378179397056</v>
+        <v>16.287471593207371</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49796786052972031</v>
+        <v>0.4964929047510675</v>
       </c>
       <c r="E6" s="0">
-        <v>29.919361527953733</v>
+        <v>29.378356099740074</v>
       </c>
       <c r="F6" s="0">
-        <v>14.846112969008525</v>
+        <v>14.552087074166376</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49620420392787346</v>
+        <v>0.49533360630396628</v>
       </c>
       <c r="H6" s="0">
-        <v>302.5</v>
+        <v>299.05925983816877</v>
       </c>
       <c r="I6" s="0">
-        <v>269</v>
+        <v>265.92667667954333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.62222222222222223</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="B7" s="0">
-        <v>33.089992675307087</v>
+        <v>32.809679270121201</v>
       </c>
       <c r="C7" s="0">
-        <v>16.47925041718976</v>
+        <v>16.291820931320405</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49801311770876139</v>
+        <v>0.49655532433555005</v>
       </c>
       <c r="E7" s="0">
-        <v>29.706592117346922</v>
+        <v>29.36557716334837</v>
       </c>
       <c r="F7" s="0">
-        <v>14.666633310347176</v>
+        <v>14.55336341299337</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49371645365483424</v>
+        <v>0.49559262302385965</v>
       </c>
       <c r="H7" s="0">
-        <v>302.5</v>
+        <v>299.02033923187747</v>
       </c>
       <c r="I7" s="0">
-        <v>268.5</v>
+        <v>266.03366760463939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.66666666666666674</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="B8" s="0">
-        <v>33.101131359061057</v>
+        <v>32.762965081703925</v>
       </c>
       <c r="C8" s="0">
-        <v>16.490095597549935</v>
+        <v>16.248004781218622</v>
       </c>
       <c r="D8" s="0">
-        <v>0.4981731717467705</v>
+        <v>0.49592595605127693</v>
       </c>
       <c r="E8" s="0">
-        <v>29.73059182269516</v>
+        <v>29.340203676791312</v>
       </c>
       <c r="F8" s="0">
-        <v>14.701272466206667</v>
+        <v>14.540525515770987</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49448300773428588</v>
+        <v>0.49558365974374041</v>
       </c>
       <c r="H8" s="0">
-        <v>302.5</v>
+        <v>299</v>
       </c>
       <c r="I8" s="0">
-        <v>268.5</v>
+        <v>265.54547235148067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.71111111111111114</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="B9" s="0">
-        <v>33.104213047162723</v>
+        <v>32.768806327497458</v>
       </c>
       <c r="C9" s="0">
-        <v>16.49231101633346</v>
+        <v>16.253001074109328</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49819371911476307</v>
+        <v>0.49599002513774398</v>
       </c>
       <c r="E9" s="0">
-        <v>29.755347219340088</v>
+        <v>29.318111259120577</v>
       </c>
       <c r="F9" s="0">
-        <v>14.729351351288093</v>
+        <v>14.587498380022573</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49501527381654797</v>
+        <v>0.49755928173867425</v>
       </c>
       <c r="H9" s="0">
-        <v>302.5</v>
+        <v>299</v>
       </c>
       <c r="I9" s="0">
-        <v>268.5</v>
+        <v>265.35560384384075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.75555555555555554</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="B10" s="0">
-        <v>33.107208044538346</v>
+        <v>32.772210078601958</v>
       </c>
       <c r="C10" s="0">
-        <v>16.495337427459649</v>
+        <v>16.25430715887039</v>
       </c>
       <c r="D10" s="0">
-        <v>0.49824006316898906</v>
+        <v>0.49597836459260813</v>
       </c>
       <c r="E10" s="0">
-        <v>29.782031871529824</v>
+        <v>29.323472989536448</v>
       </c>
       <c r="F10" s="0">
-        <v>14.769729543214364</v>
+        <v>14.611649331637572</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49592753130230538</v>
+        <v>0.49829190890354208</v>
       </c>
       <c r="H10" s="0">
-        <v>302.5</v>
+        <v>298.90000000000003</v>
       </c>
       <c r="I10" s="0">
-        <v>268</v>
+        <v>265.58707292760351</v>
       </c>
     </row>
     <row r="11">

--- a/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
+++ b/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
   <si>
     <t>Valve discahrge coefficient</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="22.265625" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>32.753577351059569</v>
+        <v>32.762762428619475</v>
       </c>
       <c r="C2" s="0">
-        <v>16.290881626426543</v>
+        <v>16.283464386474172</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49737717049400521</v>
+        <v>0.49701133785501461</v>
       </c>
       <c r="E2" s="0">
-        <v>29.449268217519098</v>
+        <v>29.418244969783707</v>
       </c>
       <c r="F2" s="0">
-        <v>14.447644840319134</v>
+        <v>14.453638316976491</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49059435818932723</v>
+        <v>0.49131545174847185</v>
       </c>
       <c r="H2" s="0">
-        <v>299.08139733819786</v>
+        <v>298.96703242738448</v>
       </c>
       <c r="I2" s="0">
-        <v>267.0264231233715</v>
+        <v>265.50126744316634</v>
       </c>
     </row>
     <row r="3">
@@ -165,202 +165,202 @@
         <v>0.44444444444444448</v>
       </c>
       <c r="B3" s="0">
-        <v>32.767804302535509</v>
+        <v>32.775785857871043</v>
       </c>
       <c r="C3" s="0">
-        <v>16.283798981148575</v>
+        <v>16.272194238416922</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49694507544066863</v>
+        <v>0.49646999492185129</v>
       </c>
       <c r="E3" s="0">
-        <v>29.436779645265183</v>
+        <v>29.393982502720043</v>
       </c>
       <c r="F3" s="0">
-        <v>14.538680507266456</v>
+        <v>14.422328534188757</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49389507556425111</v>
+        <v>0.49065581817142856</v>
       </c>
       <c r="H3" s="0">
-        <v>299</v>
+        <v>298.9703971795912</v>
       </c>
       <c r="I3" s="0">
-        <v>266.51806080714397</v>
+        <v>265.54350030344585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.53333333333333344</v>
+        <v>0.48888888888888893</v>
       </c>
       <c r="B4" s="0">
-        <v>32.790494709695217</v>
+        <v>32.787985332781076</v>
       </c>
       <c r="C4" s="0">
-        <v>16.275179168966535</v>
+        <v>16.283507757439828</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49633832343964079</v>
+        <v>0.49663032333858437</v>
       </c>
       <c r="E4" s="0">
-        <v>29.369643361785428</v>
+        <v>29.394646093641562</v>
       </c>
       <c r="F4" s="0">
-        <v>14.469798888897607</v>
+        <v>14.437561679044162</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49267874010772339</v>
+        <v>0.49116297005416887</v>
       </c>
       <c r="H4" s="0">
-        <v>299.08739985024806</v>
+        <v>299.06262781100037</v>
       </c>
       <c r="I4" s="0">
-        <v>266.63584998259716</v>
+        <v>265.511929374251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.57777777777777783</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="B5" s="0">
-        <v>32.79853471903089</v>
+        <v>32.745251947883332</v>
       </c>
       <c r="C5" s="0">
-        <v>16.281372634773582</v>
+        <v>16.291168656508937</v>
       </c>
       <c r="D5" s="0">
-        <v>0.4964054880575669</v>
+        <v>0.497512393016173</v>
       </c>
       <c r="E5" s="0">
-        <v>29.349590373071486</v>
+        <v>29.325839944198847</v>
       </c>
       <c r="F5" s="0">
-        <v>14.46896269486612</v>
+        <v>14.460842708279998</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49298687003623476</v>
+        <v>0.49310924208125195</v>
       </c>
       <c r="H5" s="0">
-        <v>298.94543814924458</v>
+        <v>299.05217342422043</v>
       </c>
       <c r="I5" s="0">
-        <v>266.56821707743393</v>
+        <v>264.98280847827692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.62222222222222223</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="B6" s="0">
-        <v>32.805044014422748</v>
+        <v>32.752722691478397</v>
       </c>
       <c r="C6" s="0">
-        <v>16.287471593207371</v>
+        <v>16.296472479430925</v>
       </c>
       <c r="D6" s="0">
-        <v>0.4964929047510675</v>
+        <v>0.49756084808396528</v>
       </c>
       <c r="E6" s="0">
-        <v>29.378356099740074</v>
+        <v>29.331261451404998</v>
       </c>
       <c r="F6" s="0">
-        <v>14.552087074166376</v>
+        <v>14.532527920170699</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49533360630396628</v>
+        <v>0.49546208383323981</v>
       </c>
       <c r="H6" s="0">
-        <v>299.05925983816877</v>
+        <v>299.04441042312209</v>
       </c>
       <c r="I6" s="0">
-        <v>265.92667667954333</v>
+        <v>265.02762051224119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.66666666666666674</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="B7" s="0">
-        <v>32.809679270121201</v>
+        <v>32.760199224079095</v>
       </c>
       <c r="C7" s="0">
-        <v>16.291820931320405</v>
+        <v>16.269940551253658</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49655532433555005</v>
+        <v>0.49663741175588083</v>
       </c>
       <c r="E7" s="0">
-        <v>29.36557716334837</v>
+        <v>29.300824459756882</v>
       </c>
       <c r="F7" s="0">
-        <v>14.55336341299337</v>
+        <v>14.524196574215168</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49559262302385965</v>
+        <v>0.4956924196506271</v>
       </c>
       <c r="H7" s="0">
-        <v>299.02033923187747</v>
+        <v>298.93938506680996</v>
       </c>
       <c r="I7" s="0">
-        <v>266.03366760463939</v>
+        <v>265.02192715614837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.71111111111111114</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="B8" s="0">
-        <v>32.762965081703925</v>
+        <v>32.766790192382182</v>
       </c>
       <c r="C8" s="0">
-        <v>16.248004781218622</v>
+        <v>16.284882772984425</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49592595605127693</v>
+        <v>0.4969935314802495</v>
       </c>
       <c r="E8" s="0">
-        <v>29.340203676791312</v>
+        <v>29.301710228807018</v>
       </c>
       <c r="F8" s="0">
-        <v>14.540525515770987</v>
+        <v>14.520524894356106</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49558365974374041</v>
+        <v>0.49555212924332065</v>
       </c>
       <c r="H8" s="0">
-        <v>299</v>
+        <v>299.00825937312686</v>
       </c>
       <c r="I8" s="0">
-        <v>265.54547235148067</v>
+        <v>265.0336594102526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.75555555555555554</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="B9" s="0">
-        <v>32.768806327497458</v>
+        <v>32.770627694489072</v>
       </c>
       <c r="C9" s="0">
-        <v>16.253001074109328</v>
+        <v>16.265428904936062</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49599002513774398</v>
+        <v>0.49634169526973587</v>
       </c>
       <c r="E9" s="0">
-        <v>29.318111259120577</v>
+        <v>29.297570220308494</v>
       </c>
       <c r="F9" s="0">
-        <v>14.587498380022573</v>
+        <v>14.539379914357784</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49755928173867425</v>
+        <v>0.49626572459853258</v>
       </c>
       <c r="H9" s="0">
-        <v>299</v>
+        <v>298.94851078498874</v>
       </c>
       <c r="I9" s="0">
-        <v>265.35560384384075</v>
+        <v>264.47249495765834</v>
       </c>
     </row>
     <row r="10">

--- a/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
+++ b/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
   <si>
     <t>Valve discahrge coefficient</t>
   </si>
@@ -136,28 +136,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>32.762762428619475</v>
+        <v>32.625824607222029</v>
       </c>
       <c r="C2" s="0">
-        <v>16.283464386474172</v>
+        <v>15.91233625917471</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49701133785501461</v>
+        <v>0.48772211739446325</v>
       </c>
       <c r="E2" s="0">
-        <v>29.418244969783707</v>
+        <v>28.702858040412664</v>
       </c>
       <c r="F2" s="0">
-        <v>14.453638316976491</v>
+        <v>14.712460264668705</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49131545174847185</v>
+        <v>0.5125782332879204</v>
       </c>
       <c r="H2" s="0">
-        <v>298.96703242738448</v>
+        <v>195.00613929006857</v>
       </c>
       <c r="I2" s="0">
-        <v>265.50126744316634</v>
+        <v>151.06650836293511</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.44444444444444448</v>
       </c>
       <c r="B3" s="0">
-        <v>32.775785857871043</v>
+        <v>32.596191464531351</v>
       </c>
       <c r="C3" s="0">
-        <v>16.272194238416922</v>
+        <v>15.877859463088061</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49646999492185129</v>
+        <v>0.48710781075037912</v>
       </c>
       <c r="E3" s="0">
-        <v>29.393982502720043</v>
+        <v>28.700497444961812</v>
       </c>
       <c r="F3" s="0">
-        <v>14.422328534188757</v>
+        <v>14.719820391775684</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49065581817142856</v>
+        <v>0.5128768384591067</v>
       </c>
       <c r="H3" s="0">
-        <v>298.9703971795912</v>
+        <v>194.97619660162789</v>
       </c>
       <c r="I3" s="0">
-        <v>265.54350030344585</v>
+        <v>151.13618634334011</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.48888888888888893</v>
       </c>
       <c r="B4" s="0">
-        <v>32.787985332781076</v>
+        <v>32.617589853319366</v>
       </c>
       <c r="C4" s="0">
-        <v>16.283507757439828</v>
+        <v>15.893578147170075</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49663032333858437</v>
+        <v>0.48727015756354686</v>
       </c>
       <c r="E4" s="0">
-        <v>29.394646093641562</v>
+        <v>28.710205554167153</v>
       </c>
       <c r="F4" s="0">
-        <v>14.437561679044162</v>
+        <v>14.739257796487934</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49116297005416887</v>
+        <v>0.51338043430861469</v>
       </c>
       <c r="H4" s="0">
-        <v>299.06262781100037</v>
+        <v>195.05651308298536</v>
       </c>
       <c r="I4" s="0">
-        <v>265.511929374251</v>
+        <v>150.39757585585699</v>
       </c>
     </row>
     <row r="5">

--- a/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
+++ b/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="117" uniqueCount="9">
   <si>
     <t>Valve discahrge coefficient</t>
   </si>
@@ -136,28 +136,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>32.625824607222029</v>
+        <v>34.865163696788528</v>
       </c>
       <c r="C2" s="0">
-        <v>15.91233625917471</v>
+        <v>17.730527047985738</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48772211739446325</v>
+        <v>0.50854564178108008</v>
       </c>
       <c r="E2" s="0">
-        <v>28.702858040412664</v>
+        <v>31.374234753087059</v>
       </c>
       <c r="F2" s="0">
-        <v>14.712460264668705</v>
+        <v>15.60861365593875</v>
       </c>
       <c r="G2" s="0">
-        <v>0.5125782332879204</v>
+        <v>0.49749782835429779</v>
       </c>
       <c r="H2" s="0">
-        <v>195.00613929006857</v>
+        <v>329</v>
       </c>
       <c r="I2" s="0">
-        <v>151.06650836293511</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.44444444444444448</v>
       </c>
       <c r="B3" s="0">
-        <v>32.596191464531351</v>
+        <v>34.883990210738389</v>
       </c>
       <c r="C3" s="0">
-        <v>15.877859463088061</v>
+        <v>17.747862315195871</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48710781075037912</v>
+        <v>0.50876812566391905</v>
       </c>
       <c r="E3" s="0">
-        <v>28.700497444961812</v>
+        <v>30.837485622887328</v>
       </c>
       <c r="F3" s="0">
-        <v>14.719820391775684</v>
+        <v>15.152236571566172</v>
       </c>
       <c r="G3" s="0">
-        <v>0.5128768384591067</v>
+        <v>0.4913577182285026</v>
       </c>
       <c r="H3" s="0">
-        <v>194.97619660162789</v>
+        <v>329</v>
       </c>
       <c r="I3" s="0">
-        <v>151.13618634334011</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.48888888888888893</v>
       </c>
       <c r="B4" s="0">
-        <v>32.617589853319366</v>
+        <v>34.909128033148804</v>
       </c>
       <c r="C4" s="0">
-        <v>15.893578147170075</v>
+        <v>17.775059451258848</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48727015756354686</v>
+        <v>0.50918084904269489</v>
       </c>
       <c r="E4" s="0">
-        <v>28.710205554167153</v>
+        <v>30.952050164152269</v>
       </c>
       <c r="F4" s="0">
-        <v>14.739257796487934</v>
+        <v>15.25393912371951</v>
       </c>
       <c r="G4" s="0">
-        <v>0.51338043430861469</v>
+        <v>0.49282483851057346</v>
       </c>
       <c r="H4" s="0">
-        <v>195.05651308298536</v>
+        <v>329</v>
       </c>
       <c r="I4" s="0">
-        <v>150.39757585585699</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>0.53333333333333344</v>
       </c>
       <c r="B5" s="0">
-        <v>32.745251947883332</v>
+        <v>34.914005437036273</v>
       </c>
       <c r="C5" s="0">
-        <v>16.291168656508937</v>
+        <v>17.778279554059971</v>
       </c>
       <c r="D5" s="0">
-        <v>0.497512393016173</v>
+        <v>0.50920194722777434</v>
       </c>
       <c r="E5" s="0">
-        <v>29.325839944198847</v>
+        <v>31.018913505886175</v>
       </c>
       <c r="F5" s="0">
-        <v>14.460842708279998</v>
+        <v>15.317128627425646</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49310924208125195</v>
+        <v>0.49379964983361052</v>
       </c>
       <c r="H5" s="0">
-        <v>299.05217342422043</v>
+        <v>329</v>
       </c>
       <c r="I5" s="0">
-        <v>264.98280847827692</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.57777777777777783</v>
       </c>
       <c r="B6" s="0">
-        <v>32.752722691478397</v>
+        <v>34.952159515933687</v>
       </c>
       <c r="C6" s="0">
-        <v>16.296472479430925</v>
+        <v>17.767804776031138</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49756084808396528</v>
+        <v>0.50834640898028938</v>
       </c>
       <c r="E6" s="0">
-        <v>29.331261451404998</v>
+        <v>31.119677692993996</v>
       </c>
       <c r="F6" s="0">
-        <v>14.532527920170699</v>
+        <v>15.397500556929396</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49546208383323981</v>
+        <v>0.49478341995797248</v>
       </c>
       <c r="H6" s="0">
-        <v>299.04441042312209</v>
+        <v>329</v>
       </c>
       <c r="I6" s="0">
-        <v>265.02762051224119</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.62222222222222223</v>
       </c>
       <c r="B7" s="0">
-        <v>32.760199224079095</v>
+        <v>34.952788993075892</v>
       </c>
       <c r="C7" s="0">
-        <v>16.269940551253658</v>
+        <v>17.768269934525801</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49663741175588083</v>
+        <v>0.50835056218391261</v>
       </c>
       <c r="E7" s="0">
-        <v>29.300824459756882</v>
+        <v>31.163331407059829</v>
       </c>
       <c r="F7" s="0">
-        <v>14.524196574215168</v>
+        <v>15.430123173557586</v>
       </c>
       <c r="G7" s="0">
-        <v>0.4956924196506271</v>
+        <v>0.49513715244391371</v>
       </c>
       <c r="H7" s="0">
-        <v>298.93938506680996</v>
+        <v>329</v>
       </c>
       <c r="I7" s="0">
-        <v>265.02192715614837</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B8" s="0">
-        <v>32.766790192382182</v>
+        <v>34.962128477084697</v>
       </c>
       <c r="C8" s="0">
-        <v>16.284882772984425</v>
+        <v>17.77838275805146</v>
       </c>
       <c r="D8" s="0">
-        <v>0.4969935314802495</v>
+        <v>0.50850401655905997</v>
       </c>
       <c r="E8" s="0">
-        <v>29.301710228807018</v>
+        <v>31.225332061916795</v>
       </c>
       <c r="F8" s="0">
-        <v>14.520524894356106</v>
+        <v>15.485053184591553</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49555212924332065</v>
+        <v>0.49591316287321457</v>
       </c>
       <c r="H8" s="0">
-        <v>299.00825937312686</v>
+        <v>329</v>
       </c>
       <c r="I8" s="0">
-        <v>265.0336594102526</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
@@ -339,57 +339,57 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="B9" s="0">
-        <v>32.770627694489072</v>
+        <v>34.964647002641158</v>
       </c>
       <c r="C9" s="0">
-        <v>16.265428904936062</v>
+        <v>17.777340600148023</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49634169526973587</v>
+        <v>0.50843758264755712</v>
       </c>
       <c r="E9" s="0">
-        <v>29.297570220308494</v>
+        <v>31.23829028071362</v>
       </c>
       <c r="F9" s="0">
-        <v>14.539379914357784</v>
+        <v>15.482228028281039</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49626572459853258</v>
+        <v>0.49561701005895631</v>
       </c>
       <c r="H9" s="0">
-        <v>298.94851078498874</v>
+        <v>329</v>
       </c>
       <c r="I9" s="0">
-        <v>264.47249495765834</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="B10" s="0">
-        <v>32.772210078601958</v>
+        <v>34.981824961255889</v>
       </c>
       <c r="C10" s="0">
-        <v>16.25430715887039</v>
+        <v>17.743318110149676</v>
       </c>
       <c r="D10" s="0">
-        <v>0.49597836459260813</v>
+        <v>0.50721533624392912</v>
       </c>
       <c r="E10" s="0">
-        <v>29.323472989536448</v>
+        <v>31.304384021697494</v>
       </c>
       <c r="F10" s="0">
-        <v>14.611649331637572</v>
+        <v>15.546367946322576</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49829190890354208</v>
+        <v>0.49661951295854206</v>
       </c>
       <c r="H10" s="0">
-        <v>298.90000000000003</v>
+        <v>329</v>
       </c>
       <c r="I10" s="0">
-        <v>265.58707292760351</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B11" s="0">
-        <v>33.114161624212031</v>
+        <v>34.979320031838526</v>
       </c>
       <c r="C11" s="0">
-        <v>16.501876184799734</v>
+        <v>17.779083977098363</v>
       </c>
       <c r="D11" s="0">
-        <v>0.49833289974444295</v>
+        <v>0.50827414486375555</v>
       </c>
       <c r="E11" s="0">
-        <v>29.780713481931144</v>
+        <v>31.384922966411054</v>
       </c>
       <c r="F11" s="0">
-        <v>14.839810584240809</v>
+        <v>15.647977936771184</v>
       </c>
       <c r="G11" s="0">
-        <v>0.49830272176805196</v>
+        <v>0.49858264598954249</v>
       </c>
       <c r="H11" s="0">
-        <v>302.5</v>
+        <v>329</v>
       </c>
       <c r="I11" s="0">
-        <v>268.5</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
+++ b/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="117" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>Valve discahrge coefficient</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.265625" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="25" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>34.865163696788528</v>
+        <v>33.285905779941892</v>
       </c>
       <c r="C2" s="0">
-        <v>17.730527047985738</v>
+        <v>16.275184844542355</v>
       </c>
       <c r="D2" s="0">
-        <v>0.50854564178108008</v>
+        <v>0.48895123816488695</v>
       </c>
       <c r="E2" s="0">
-        <v>31.374234753087059</v>
+        <v>30.43706377061801</v>
       </c>
       <c r="F2" s="0">
-        <v>15.60861365593875</v>
+        <v>15.354937458636416</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49749782835429779</v>
+        <v>0.50448156150525558</v>
       </c>
       <c r="H2" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I2" s="0">
-        <v>237</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.44444444444444448</v>
       </c>
       <c r="B3" s="0">
-        <v>34.883990210738389</v>
+        <v>33.316077996955912</v>
       </c>
       <c r="C3" s="0">
-        <v>17.747862315195871</v>
+        <v>16.303421194807829</v>
       </c>
       <c r="D3" s="0">
-        <v>0.50876812566391905</v>
+        <v>0.48935595589305175</v>
       </c>
       <c r="E3" s="0">
-        <v>30.837485622887328</v>
+        <v>30.501523533415934</v>
       </c>
       <c r="F3" s="0">
-        <v>15.152236571566172</v>
+        <v>15.415012223537902</v>
       </c>
       <c r="G3" s="0">
-        <v>0.4913577182285026</v>
+        <v>0.50538499188901143</v>
       </c>
       <c r="H3" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I3" s="0">
-        <v>236</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.48888888888888893</v>
       </c>
       <c r="B4" s="0">
-        <v>34.909128033148804</v>
+        <v>33.341114017191778</v>
       </c>
       <c r="C4" s="0">
-        <v>17.775059451258848</v>
+        <v>16.328640322741769</v>
       </c>
       <c r="D4" s="0">
-        <v>0.50918084904269489</v>
+        <v>0.48974489317670022</v>
       </c>
       <c r="E4" s="0">
-        <v>30.952050164152269</v>
+        <v>30.494467243112851</v>
       </c>
       <c r="F4" s="0">
-        <v>15.25393912371951</v>
+        <v>15.397149174403538</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49282483851057346</v>
+        <v>0.50491615582761062</v>
       </c>
       <c r="H4" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I4" s="0">
-        <v>236</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>0.53333333333333344</v>
       </c>
       <c r="B5" s="0">
-        <v>34.914005437036273</v>
+        <v>33.361589039801849</v>
       </c>
       <c r="C5" s="0">
-        <v>17.778279554059971</v>
+        <v>16.348184105031642</v>
       </c>
       <c r="D5" s="0">
-        <v>0.50920194722777434</v>
+        <v>0.49003013871813889</v>
       </c>
       <c r="E5" s="0">
-        <v>31.018913505886175</v>
+        <v>30.515752826899742</v>
       </c>
       <c r="F5" s="0">
-        <v>15.317128627425646</v>
+        <v>15.399669414184094</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49379964983361052</v>
+        <v>0.5046465509646294</v>
       </c>
       <c r="H5" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I5" s="0">
-        <v>237</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.57777777777777783</v>
       </c>
       <c r="B6" s="0">
-        <v>34.952159515933687</v>
+        <v>33.376007316432542</v>
       </c>
       <c r="C6" s="0">
-        <v>17.767804776031138</v>
+        <v>16.307877027489013</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50834640898028938</v>
+        <v>0.48861078177736067</v>
       </c>
       <c r="E6" s="0">
-        <v>31.119677692993996</v>
+        <v>30.545213126406018</v>
       </c>
       <c r="F6" s="0">
-        <v>15.397500556929396</v>
+        <v>15.415925728397664</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49478341995797248</v>
+        <v>0.50469203356354242</v>
       </c>
       <c r="H6" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I6" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.62222222222222223</v>
       </c>
       <c r="B7" s="0">
-        <v>34.952788993075892</v>
+        <v>33.389708971335352</v>
       </c>
       <c r="C7" s="0">
-        <v>17.768269934525801</v>
+        <v>16.311471467215917</v>
       </c>
       <c r="D7" s="0">
-        <v>0.50835056218391261</v>
+        <v>0.4885179287192683</v>
       </c>
       <c r="E7" s="0">
-        <v>31.163331407059829</v>
+        <v>30.587524235588717</v>
       </c>
       <c r="F7" s="0">
-        <v>15.430123173557586</v>
+        <v>15.482524661983135</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49513715244391371</v>
+        <v>0.50617122663262659</v>
       </c>
       <c r="H7" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I7" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B8" s="0">
-        <v>34.962128477084697</v>
+        <v>33.399523333405867</v>
       </c>
       <c r="C8" s="0">
-        <v>17.77838275805146</v>
+        <v>16.322743477919445</v>
       </c>
       <c r="D8" s="0">
-        <v>0.50850401655905997</v>
+        <v>0.48871186917789339</v>
       </c>
       <c r="E8" s="0">
-        <v>31.225332061916795</v>
+        <v>30.602007772780688</v>
       </c>
       <c r="F8" s="0">
-        <v>15.485053184591553</v>
+        <v>15.494615353011225</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49591316287321457</v>
+        <v>0.50632675699118967</v>
       </c>
       <c r="H8" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I8" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="B9" s="0">
-        <v>34.964647002641158</v>
+        <v>33.409746698148012</v>
       </c>
       <c r="C9" s="0">
-        <v>17.777340600148023</v>
+        <v>16.329580341143316</v>
       </c>
       <c r="D9" s="0">
-        <v>0.50843758264755712</v>
+        <v>0.48876696039268402</v>
       </c>
       <c r="E9" s="0">
-        <v>31.23829028071362</v>
+        <v>30.592300539390152</v>
       </c>
       <c r="F9" s="0">
-        <v>15.482228028281039</v>
+        <v>15.488203735858297</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49561701005895631</v>
+        <v>0.50627783667056803</v>
       </c>
       <c r="H9" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I9" s="0">
-        <v>237</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="B10" s="0">
-        <v>34.981824961255889</v>
+        <v>33.419073408951213</v>
       </c>
       <c r="C10" s="0">
-        <v>17.743318110149676</v>
+        <v>16.342886520766751</v>
       </c>
       <c r="D10" s="0">
-        <v>0.50721533624392912</v>
+        <v>0.48902871485327748</v>
       </c>
       <c r="E10" s="0">
-        <v>31.304384021697494</v>
+        <v>30.615062913747778</v>
       </c>
       <c r="F10" s="0">
-        <v>15.546367946322576</v>
+        <v>15.476099470649883</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49661951295854206</v>
+        <v>0.50550604825640577</v>
       </c>
       <c r="H10" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I10" s="0">
-        <v>238</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B11" s="0">
-        <v>34.979320031838526</v>
+        <v>33.428031668027195</v>
       </c>
       <c r="C11" s="0">
-        <v>17.779083977098363</v>
+        <v>16.348906240676111</v>
       </c>
       <c r="D11" s="0">
-        <v>0.50827414486375555</v>
+        <v>0.48907774178978353</v>
       </c>
       <c r="E11" s="0">
-        <v>31.384922966411054</v>
+        <v>30.61591614602488</v>
       </c>
       <c r="F11" s="0">
-        <v>15.647977936771184</v>
+        <v>15.457927257041952</v>
       </c>
       <c r="G11" s="0">
-        <v>0.49858264598954249</v>
+        <v>0.50489840589170099</v>
       </c>
       <c r="H11" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I11" s="0">
-        <v>237</v>
+        <v>246.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
+++ b/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
@@ -136,28 +136,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>33.285905779941892</v>
+        <v>34.766589115695034</v>
       </c>
       <c r="C2" s="0">
-        <v>16.275184844542355</v>
+        <v>15.964111878738303</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48895123816488695</v>
+        <v>0.4591796976578143</v>
       </c>
       <c r="E2" s="0">
-        <v>30.43706377061801</v>
+        <v>30.772227766710479</v>
       </c>
       <c r="F2" s="0">
-        <v>15.354937458636416</v>
+        <v>15.367492730672387</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50448156150525558</v>
+        <v>0.49939487147878853</v>
       </c>
       <c r="H2" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I2" s="0">
-        <v>247.5</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.44444444444444448</v>
       </c>
       <c r="B3" s="0">
-        <v>33.316077996955912</v>
+        <v>34.811697109202491</v>
       </c>
       <c r="C3" s="0">
-        <v>16.303421194807829</v>
+        <v>16.005152026127682</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48935595589305175</v>
+        <v>0.45976362416116484</v>
       </c>
       <c r="E3" s="0">
-        <v>30.501523533415934</v>
+        <v>30.812307935858165</v>
       </c>
       <c r="F3" s="0">
-        <v>15.415012223537902</v>
+        <v>15.405672362614842</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50538499188901143</v>
+        <v>0.49998436970981719</v>
       </c>
       <c r="H3" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I3" s="0">
-        <v>247.5</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.48888888888888893</v>
       </c>
       <c r="B4" s="0">
-        <v>33.341114017191778</v>
+        <v>34.838277613680795</v>
       </c>
       <c r="C4" s="0">
-        <v>16.328640322741769</v>
+        <v>16.03046497794686</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48974489317670022</v>
+        <v>0.4601394235302777</v>
       </c>
       <c r="E4" s="0">
-        <v>30.494467243112851</v>
+        <v>30.850187059445034</v>
       </c>
       <c r="F4" s="0">
-        <v>15.397149174403538</v>
+        <v>15.449652511215708</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50491615582761062</v>
+        <v>0.50079607236889256</v>
       </c>
       <c r="H4" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I4" s="0">
-        <v>247.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>0.53333333333333344</v>
       </c>
       <c r="B5" s="0">
-        <v>33.361589039801849</v>
+        <v>34.868685727598681</v>
       </c>
       <c r="C5" s="0">
-        <v>16.348184105031642</v>
+        <v>16.056062460222176</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49003013871813889</v>
+        <v>0.46047225827940363</v>
       </c>
       <c r="E5" s="0">
-        <v>30.515752826899742</v>
+        <v>30.880684803410553</v>
       </c>
       <c r="F5" s="0">
-        <v>15.399669414184094</v>
+        <v>15.477324874711522</v>
       </c>
       <c r="G5" s="0">
-        <v>0.5046465509646294</v>
+        <v>0.50119759238636319</v>
       </c>
       <c r="H5" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I5" s="0">
-        <v>247.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.57777777777777783</v>
       </c>
       <c r="B6" s="0">
-        <v>33.376007316432542</v>
+        <v>34.877566029482153</v>
       </c>
       <c r="C6" s="0">
-        <v>16.307877027489013</v>
+        <v>16.064873538813725</v>
       </c>
       <c r="D6" s="0">
-        <v>0.48861078177736067</v>
+        <v>0.46060764461700165</v>
       </c>
       <c r="E6" s="0">
-        <v>30.545213126406018</v>
+        <v>30.908911721550538</v>
       </c>
       <c r="F6" s="0">
-        <v>15.415925728397664</v>
+        <v>15.49151019126575</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50469203356354242</v>
+        <v>0.50119882352456446</v>
       </c>
       <c r="H6" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I6" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.62222222222222223</v>
       </c>
       <c r="B7" s="0">
-        <v>33.389708971335352</v>
+        <v>34.889874079538188</v>
       </c>
       <c r="C7" s="0">
-        <v>16.311471467215917</v>
+        <v>16.073750341553687</v>
       </c>
       <c r="D7" s="0">
-        <v>0.4885179287192683</v>
+        <v>0.46069958019654861</v>
       </c>
       <c r="E7" s="0">
-        <v>30.587524235588717</v>
+        <v>30.933795506608398</v>
       </c>
       <c r="F7" s="0">
-        <v>15.482524661983135</v>
+        <v>15.51478705612951</v>
       </c>
       <c r="G7" s="0">
-        <v>0.50617122663262659</v>
+        <v>0.50154812243505908</v>
       </c>
       <c r="H7" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I7" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B8" s="0">
-        <v>33.399523333405867</v>
+        <v>34.899093733979356</v>
       </c>
       <c r="C8" s="0">
-        <v>16.322743477919445</v>
+        <v>16.082601439180841</v>
       </c>
       <c r="D8" s="0">
-        <v>0.48871186917789339</v>
+        <v>0.46083149212330649</v>
       </c>
       <c r="E8" s="0">
-        <v>30.602007772780688</v>
+        <v>30.950956582531738</v>
       </c>
       <c r="F8" s="0">
-        <v>15.494615353011225</v>
+        <v>15.525912020710509</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50632675699118967</v>
+        <v>0.50162947239805522</v>
       </c>
       <c r="H8" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I8" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="B9" s="0">
-        <v>33.409746698148012</v>
+        <v>34.91417057195526</v>
       </c>
       <c r="C9" s="0">
-        <v>16.329580341143316</v>
+        <v>16.09713715254377</v>
       </c>
       <c r="D9" s="0">
-        <v>0.48876696039268402</v>
+        <v>0.46104882025963878</v>
       </c>
       <c r="E9" s="0">
-        <v>30.592300539390152</v>
+        <v>30.639697009053023</v>
       </c>
       <c r="F9" s="0">
-        <v>15.488203735858297</v>
+        <v>15.262229435687013</v>
       </c>
       <c r="G9" s="0">
-        <v>0.50627783667056803</v>
+        <v>0.49811946349135</v>
       </c>
       <c r="H9" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I9" s="0">
-        <v>246.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="B10" s="0">
-        <v>33.419073408951213</v>
+        <v>34.925126585070657</v>
       </c>
       <c r="C10" s="0">
-        <v>16.342886520766751</v>
+        <v>16.107087224092599</v>
       </c>
       <c r="D10" s="0">
-        <v>0.48902871485327748</v>
+        <v>0.46118908645496071</v>
       </c>
       <c r="E10" s="0">
-        <v>30.615062913747778</v>
+        <v>30.651034663778006</v>
       </c>
       <c r="F10" s="0">
-        <v>15.476099470649883</v>
+        <v>15.276738165447519</v>
       </c>
       <c r="G10" s="0">
-        <v>0.50550604825640577</v>
+        <v>0.49840856378988313</v>
       </c>
       <c r="H10" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I10" s="0">
-        <v>246.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B11" s="0">
-        <v>33.428031668027195</v>
+        <v>34.938369452567947</v>
       </c>
       <c r="C11" s="0">
-        <v>16.348906240676111</v>
+        <v>16.116278001432512</v>
       </c>
       <c r="D11" s="0">
-        <v>0.48907774178978353</v>
+        <v>0.4612773364627632</v>
       </c>
       <c r="E11" s="0">
-        <v>30.61591614602488</v>
+        <v>31.017645893353595</v>
       </c>
       <c r="F11" s="0">
-        <v>15.457927257041952</v>
+        <v>15.616666433191632</v>
       </c>
       <c r="G11" s="0">
-        <v>0.50489840589170099</v>
+        <v>0.50347684304881246</v>
       </c>
       <c r="H11" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I11" s="0">
-        <v>246.5</v>
+        <v>301.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
+++ b/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="22.265625" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>34.766589115695034</v>
+        <v>34.749984565889072</v>
       </c>
       <c r="C2" s="0">
-        <v>15.964111878738303</v>
+        <v>16.027423637899854</v>
       </c>
       <c r="D2" s="0">
-        <v>0.4591796976578143</v>
+        <v>0.46122102896219791</v>
       </c>
       <c r="E2" s="0">
-        <v>30.772227766710479</v>
+        <v>30.65946564110218</v>
       </c>
       <c r="F2" s="0">
-        <v>15.367492730672387</v>
+        <v>15.315465106263842</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49939487147878853</v>
+        <v>0.49953463917296326</v>
       </c>
       <c r="H2" s="0">
-        <v>338.5</v>
+        <v>337.5</v>
       </c>
       <c r="I2" s="0">
-        <v>302.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.44444444444444448</v>
       </c>
       <c r="B3" s="0">
-        <v>34.811697109202491</v>
+        <v>34.792275828140532</v>
       </c>
       <c r="C3" s="0">
-        <v>16.005152026127682</v>
+        <v>16.070862018274894</v>
       </c>
       <c r="D3" s="0">
-        <v>0.45976362416116484</v>
+        <v>0.46190890465626089</v>
       </c>
       <c r="E3" s="0">
-        <v>30.812307935858165</v>
+        <v>30.69134123498948</v>
       </c>
       <c r="F3" s="0">
-        <v>15.405672362614842</v>
+        <v>15.331044661654182</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49998436970981719</v>
+        <v>0.49952345009204474</v>
       </c>
       <c r="H3" s="0">
-        <v>338.5</v>
+        <v>337.5</v>
       </c>
       <c r="I3" s="0">
-        <v>302.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.48888888888888893</v>
       </c>
       <c r="B4" s="0">
-        <v>34.838277613680795</v>
+        <v>34.822369520987223</v>
       </c>
       <c r="C4" s="0">
-        <v>16.03046497794686</v>
+        <v>16.103495876470845</v>
       </c>
       <c r="D4" s="0">
-        <v>0.4601394235302777</v>
+        <v>0.46244687245551652</v>
       </c>
       <c r="E4" s="0">
-        <v>30.850187059445034</v>
+        <v>30.736419501104685</v>
       </c>
       <c r="F4" s="0">
-        <v>15.449652511215708</v>
+        <v>15.386645847454201</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50079607236889256</v>
+        <v>0.50059981276938248</v>
       </c>
       <c r="H4" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I4" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>0.53333333333333344</v>
       </c>
       <c r="B5" s="0">
-        <v>34.868685727598681</v>
+        <v>34.84296501344155</v>
       </c>
       <c r="C5" s="0">
-        <v>16.056062460222176</v>
+        <v>16.121617767400551</v>
       </c>
       <c r="D5" s="0">
-        <v>0.46047225827940363</v>
+        <v>0.46269362441403111</v>
       </c>
       <c r="E5" s="0">
-        <v>30.880684803410553</v>
+        <v>30.759968894421611</v>
       </c>
       <c r="F5" s="0">
-        <v>15.477324874711522</v>
+        <v>15.387899196629453</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50119759238636319</v>
+        <v>0.50025730680826808</v>
       </c>
       <c r="H5" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I5" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.57777777777777783</v>
       </c>
       <c r="B6" s="0">
-        <v>34.877566029482153</v>
+        <v>34.862395989746702</v>
       </c>
       <c r="C6" s="0">
-        <v>16.064873538813725</v>
+        <v>16.128958479658881</v>
       </c>
       <c r="D6" s="0">
-        <v>0.46060764461700165</v>
+        <v>0.46264629902094312</v>
       </c>
       <c r="E6" s="0">
-        <v>30.908911721550538</v>
+        <v>30.820760503377322</v>
       </c>
       <c r="F6" s="0">
-        <v>15.49151019126575</v>
+        <v>15.457196285304263</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50119882352456446</v>
+        <v>0.50151897723647909</v>
       </c>
       <c r="H6" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I6" s="0">
-        <v>302</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.62222222222222223</v>
       </c>
       <c r="B7" s="0">
-        <v>34.889874079538188</v>
+        <v>34.868843693494135</v>
       </c>
       <c r="C7" s="0">
-        <v>16.073750341553687</v>
+        <v>16.137677079980662</v>
       </c>
       <c r="D7" s="0">
-        <v>0.46069958019654861</v>
+        <v>0.46281078953563481</v>
       </c>
       <c r="E7" s="0">
-        <v>30.933795506608398</v>
+        <v>30.851928732119447</v>
       </c>
       <c r="F7" s="0">
-        <v>15.51478705612951</v>
+        <v>15.487551939028245</v>
       </c>
       <c r="G7" s="0">
-        <v>0.50154812243505908</v>
+        <v>0.50199623088408096</v>
       </c>
       <c r="H7" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I7" s="0">
-        <v>302</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B8" s="0">
-        <v>34.899093733979356</v>
+        <v>34.877559193744702</v>
       </c>
       <c r="C8" s="0">
-        <v>16.082601439180841</v>
+        <v>16.145021761430456</v>
       </c>
       <c r="D8" s="0">
-        <v>0.46083149212330649</v>
+        <v>0.46290572318277562</v>
       </c>
       <c r="E8" s="0">
-        <v>30.950956582531738</v>
+        <v>30.870098301379386</v>
       </c>
       <c r="F8" s="0">
-        <v>15.525912020710509</v>
+        <v>15.505557011451746</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50162947239805522</v>
+        <v>0.50228401801878619</v>
       </c>
       <c r="H8" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I8" s="0">
-        <v>302</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="B9" s="0">
-        <v>34.91417057195526</v>
+        <v>34.890879815397469</v>
       </c>
       <c r="C9" s="0">
-        <v>16.09713715254377</v>
+        <v>16.13160958508314</v>
       </c>
       <c r="D9" s="0">
-        <v>0.46104882025963878</v>
+        <v>0.46234459177966053</v>
       </c>
       <c r="E9" s="0">
-        <v>30.639697009053023</v>
+        <v>30.890394099833877</v>
       </c>
       <c r="F9" s="0">
-        <v>15.262229435687013</v>
+        <v>15.52067963950469</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49811946349135</v>
+        <v>0.50244356188347106</v>
       </c>
       <c r="H9" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I9" s="0">
-        <v>301</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="B10" s="0">
-        <v>34.925126585070657</v>
+        <v>34.903941108611413</v>
       </c>
       <c r="C10" s="0">
-        <v>16.107087224092599</v>
+        <v>16.11908090092891</v>
       </c>
       <c r="D10" s="0">
-        <v>0.46118908645496071</v>
+        <v>0.46181263172461778</v>
       </c>
       <c r="E10" s="0">
-        <v>30.651034663778006</v>
+        <v>30.904004155888181</v>
       </c>
       <c r="F10" s="0">
-        <v>15.276738165447519</v>
+        <v>15.543904029220483</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49840856378988313</v>
+        <v>0.50297378782415425</v>
       </c>
       <c r="H10" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I10" s="0">
-        <v>301</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B11" s="0">
-        <v>34.938369452567947</v>
+        <v>34.918023851338937</v>
       </c>
       <c r="C11" s="0">
-        <v>16.116278001432512</v>
+        <v>16.133717676544649</v>
       </c>
       <c r="D11" s="0">
-        <v>0.4612773364627632</v>
+        <v>0.46204555404489189</v>
       </c>
       <c r="E11" s="0">
-        <v>31.017645893353595</v>
+        <v>30.924690051711572</v>
       </c>
       <c r="F11" s="0">
-        <v>15.616666433191632</v>
+        <v>15.537925766122775</v>
       </c>
       <c r="G11" s="0">
-        <v>0.50347684304881246</v>
+        <v>0.50244402579752956</v>
       </c>
       <c r="H11" s="0">
-        <v>338.5</v>
+        <v>338</v>
       </c>
       <c r="I11" s="0">
-        <v>301.5</v>
+        <v>300.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
+++ b/Graphs/vaalve_discharge_coeff_sweep_results.xlsx
@@ -136,28 +136,28 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>34.749984565889072</v>
+        <v>34.766589115695034</v>
       </c>
       <c r="C2" s="0">
-        <v>16.027423637899854</v>
+        <v>15.964111878738303</v>
       </c>
       <c r="D2" s="0">
-        <v>0.46122102896219791</v>
+        <v>0.4591796976578143</v>
       </c>
       <c r="E2" s="0">
-        <v>30.65946564110218</v>
+        <v>30.772227766710479</v>
       </c>
       <c r="F2" s="0">
-        <v>15.315465106263842</v>
+        <v>15.367492730672387</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49953463917296326</v>
+        <v>0.49939487147878853</v>
       </c>
       <c r="H2" s="0">
-        <v>337.5</v>
+        <v>338.5</v>
       </c>
       <c r="I2" s="0">
-        <v>301</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>0.44444444444444448</v>
       </c>
       <c r="B3" s="0">
-        <v>34.792275828140532</v>
+        <v>34.811697109202491</v>
       </c>
       <c r="C3" s="0">
-        <v>16.070862018274894</v>
+        <v>16.005152026127682</v>
       </c>
       <c r="D3" s="0">
-        <v>0.46190890465626089</v>
+        <v>0.45976362416116484</v>
       </c>
       <c r="E3" s="0">
-        <v>30.69134123498948</v>
+        <v>30.812307935858165</v>
       </c>
       <c r="F3" s="0">
-        <v>15.331044661654182</v>
+        <v>15.405672362614842</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49952345009204474</v>
+        <v>0.49998436970981719</v>
       </c>
       <c r="H3" s="0">
-        <v>337.5</v>
+        <v>338.5</v>
       </c>
       <c r="I3" s="0">
-        <v>301</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>0.48888888888888893</v>
       </c>
       <c r="B4" s="0">
-        <v>34.822369520987223</v>
+        <v>34.838277613680795</v>
       </c>
       <c r="C4" s="0">
-        <v>16.103495876470845</v>
+        <v>16.03046497794686</v>
       </c>
       <c r="D4" s="0">
-        <v>0.46244687245551652</v>
+        <v>0.4601394235302777</v>
       </c>
       <c r="E4" s="0">
-        <v>30.736419501104685</v>
+        <v>30.850187059445034</v>
       </c>
       <c r="F4" s="0">
-        <v>15.386645847454201</v>
+        <v>15.449652511215708</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50059981276938248</v>
+        <v>0.50079607236889256</v>
       </c>
       <c r="H4" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I4" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>0.53333333333333344</v>
       </c>
       <c r="B5" s="0">
-        <v>34.84296501344155</v>
+        <v>34.868685727598681</v>
       </c>
       <c r="C5" s="0">
-        <v>16.121617767400551</v>
+        <v>16.056062460222176</v>
       </c>
       <c r="D5" s="0">
-        <v>0.46269362441403111</v>
+        <v>0.46047225827940363</v>
       </c>
       <c r="E5" s="0">
-        <v>30.759968894421611</v>
+        <v>30.880684803410553</v>
       </c>
       <c r="F5" s="0">
-        <v>15.387899196629453</v>
+        <v>15.477324874711522</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50025730680826808</v>
+        <v>0.50119759238636319</v>
       </c>
       <c r="H5" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I5" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>0.57777777777777783</v>
       </c>
       <c r="B6" s="0">
-        <v>34.862395989746702</v>
+        <v>34.877566029482153</v>
       </c>
       <c r="C6" s="0">
-        <v>16.128958479658881</v>
+        <v>16.064873538813725</v>
       </c>
       <c r="D6" s="0">
-        <v>0.46264629902094312</v>
+        <v>0.46060764461700165</v>
       </c>
       <c r="E6" s="0">
-        <v>30.820760503377322</v>
+        <v>30.908911721550538</v>
       </c>
       <c r="F6" s="0">
-        <v>15.457196285304263</v>
+        <v>15.49151019126575</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50151897723647909</v>
+        <v>0.50119882352456446</v>
       </c>
       <c r="H6" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I6" s="0">
-        <v>300.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>0.62222222222222223</v>
       </c>
       <c r="B7" s="0">
-        <v>34.868843693494135</v>
+        <v>34.889874079538188</v>
       </c>
       <c r="C7" s="0">
-        <v>16.137677079980662</v>
+        <v>16.073750341553687</v>
       </c>
       <c r="D7" s="0">
-        <v>0.46281078953563481</v>
+        <v>0.46069958019654861</v>
       </c>
       <c r="E7" s="0">
-        <v>30.851928732119447</v>
+        <v>30.933795506608398</v>
       </c>
       <c r="F7" s="0">
-        <v>15.487551939028245</v>
+        <v>15.51478705612951</v>
       </c>
       <c r="G7" s="0">
-        <v>0.50199623088408096</v>
+        <v>0.50154812243505908</v>
       </c>
       <c r="H7" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I7" s="0">
-        <v>300.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B8" s="0">
-        <v>34.877559193744702</v>
+        <v>34.899093733979356</v>
       </c>
       <c r="C8" s="0">
-        <v>16.145021761430456</v>
+        <v>16.082601439180841</v>
       </c>
       <c r="D8" s="0">
-        <v>0.46290572318277562</v>
+        <v>0.46083149212330649</v>
       </c>
       <c r="E8" s="0">
-        <v>30.870098301379386</v>
+        <v>30.950956582531738</v>
       </c>
       <c r="F8" s="0">
-        <v>15.505557011451746</v>
+        <v>15.525912020710509</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50228401801878619</v>
+        <v>0.50162947239805522</v>
       </c>
       <c r="H8" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I8" s="0">
-        <v>300.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>0.71111111111111114</v>
       </c>
       <c r="B9" s="0">
-        <v>34.890879815397469</v>
+        <v>34.91417057195526</v>
       </c>
       <c r="C9" s="0">
-        <v>16.13160958508314</v>
+        <v>16.09713715254377</v>
       </c>
       <c r="D9" s="0">
-        <v>0.46234459177966053</v>
+        <v>0.46104882025963878</v>
       </c>
       <c r="E9" s="0">
-        <v>30.890394099833877</v>
+        <v>30.639697009053023</v>
       </c>
       <c r="F9" s="0">
-        <v>15.52067963950469</v>
+        <v>15.262229435687013</v>
       </c>
       <c r="G9" s="0">
-        <v>0.50244356188347106</v>
+        <v>0.49811946349135</v>
       </c>
       <c r="H9" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I9" s="0">
-        <v>300.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="B10" s="0">
-        <v>34.903941108611413</v>
+        <v>34.925126585070657</v>
       </c>
       <c r="C10" s="0">
-        <v>16.11908090092891</v>
+        <v>16.107087224092599</v>
       </c>
       <c r="D10" s="0">
-        <v>0.46181263172461778</v>
+        <v>0.46118908645496071</v>
       </c>
       <c r="E10" s="0">
-        <v>30.904004155888181</v>
+        <v>30.651034663778006</v>
       </c>
       <c r="F10" s="0">
-        <v>15.543904029220483</v>
+        <v>15.276738165447519</v>
       </c>
       <c r="G10" s="0">
-        <v>0.50297378782415425</v>
+        <v>0.49840856378988313</v>
       </c>
       <c r="H10" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I10" s="0">
-        <v>300.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B11" s="0">
-        <v>34.918023851338937</v>
+        <v>34.938369452567947</v>
       </c>
       <c r="C11" s="0">
-        <v>16.133717676544649</v>
+        <v>16.116278001432512</v>
       </c>
       <c r="D11" s="0">
-        <v>0.46204555404489189</v>
+        <v>0.4612773364627632</v>
       </c>
       <c r="E11" s="0">
-        <v>30.924690051711572</v>
+        <v>31.017645893353595</v>
       </c>
       <c r="F11" s="0">
-        <v>15.537925766122775</v>
+        <v>15.616666433191632</v>
       </c>
       <c r="G11" s="0">
-        <v>0.50244402579752956</v>
+        <v>0.50347684304881246</v>
       </c>
       <c r="H11" s="0">
-        <v>338</v>
+        <v>338.5</v>
       </c>
       <c r="I11" s="0">
-        <v>300.5</v>
+        <v>301.5</v>
       </c>
     </row>
   </sheetData>
